--- a/052CD/模型硬化信息_v1.0.xlsx
+++ b/052CD/模型硬化信息_v1.0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\wd\FG-052D\FG-052D\052c doc\硬化信息\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\wd\HQ9\HQ9\052CD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD97FA2-4737-45BC-8C55-392080E86CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5CF040-3D01-4161-8D34-8F7F44C343E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="290">
   <si>
     <t>layer1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -810,26 +810,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mx delay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>conv1 valid in_c(delay/f)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>frame</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gcnsct</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -842,31 +830,361 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>delay/2pe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delay/1pe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>conv9 valid k(delay/f)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>conv9 after drop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>conv9 dsp scheme</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24t</t>
+    <t>c1 dsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c9 dsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std delay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dsp_sp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c1 valid in_c(delay/f)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c1 k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c9_in_sp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c9 valid k(delay/f)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c9 valid in_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64, 64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>128t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>96t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delay改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c1 改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c9 改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31*(64/8)+1+1+8=258</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37*(64/8)+1+1+8=306</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64, 128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>128+2=130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sct dsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>128, 128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>124t</t>
+  </si>
+  <si>
+    <t>31*(128/8)+1+1+8=506</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62+2=64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>128, 256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>256+2=258</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>212t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>256, 256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25*(256/8)+1+1+8=810</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21+2=23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.5t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.5t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31*(256/8)+1+1+8=1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>156t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>208t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64+64+2=130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求和</t>
+  </si>
+  <si>
+    <t>平均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c1改详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c9改详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2+2*(2+2+2)+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7*6+15*3+9+2+1=98</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2+(32+32+2)+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>248t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>168t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>256t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7*6+23*3+9+2+1=122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2+2*(64+64+4)+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15*6+31*3+9+2+1=195</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c9-sct改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32+32+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c9-sct改详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2+(32+32+2)+1=69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2+(64+64+4)+1=135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2+2*(256+256+2)+1=1031</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>256+256+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2+(16+16+2)+1=37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2+(8+8+2)+1=21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7*6+7*3+8+2+1=74</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6*1+3*3+8+2+1=26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6*31+3*63+8+2+1=386</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1 sct有参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight size(KB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C9 sct有参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -874,7 +1192,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -934,8 +1252,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1020,8 +1346,62 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1090,11 +1470,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1167,6 +1560,237 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6434,37 +7058,49 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B06E39A-4351-408E-A9B9-2A4ED4130BA1}">
-  <dimension ref="A1:AC12"/>
+  <dimension ref="A1:AG52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA28" sqref="AA28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="9" style="58"/>
-    <col min="5" max="5" width="9.5" style="58" customWidth="1"/>
-    <col min="6" max="6" width="20.75" style="58" customWidth="1"/>
-    <col min="7" max="7" width="17.25" style="58" customWidth="1"/>
-    <col min="8" max="8" width="10.875" style="58" customWidth="1"/>
-    <col min="9" max="9" width="7" style="58" customWidth="1"/>
-    <col min="10" max="11" width="9" style="58"/>
-    <col min="12" max="12" width="7.75" style="58" customWidth="1"/>
-    <col min="13" max="13" width="10.375" style="58" customWidth="1"/>
-    <col min="14" max="14" width="11.25" style="58" customWidth="1"/>
-    <col min="15" max="15" width="9.375" style="58" customWidth="1"/>
-    <col min="16" max="16" width="9" style="58"/>
-    <col min="17" max="17" width="22" style="58" customWidth="1"/>
-    <col min="18" max="18" width="14.875" style="58" customWidth="1"/>
-    <col min="19" max="19" width="16.125" style="58" customWidth="1"/>
-    <col min="20" max="25" width="9" style="58"/>
-    <col min="26" max="26" width="13.25" style="58" customWidth="1"/>
-    <col min="27" max="27" width="18.25" style="58" customWidth="1"/>
-    <col min="28" max="28" width="16.5" style="58" customWidth="1"/>
-    <col min="29" max="16384" width="9" style="58"/>
+    <col min="1" max="3" width="9" style="58"/>
+    <col min="4" max="4" width="17.875" style="58" customWidth="1"/>
+    <col min="5" max="5" width="7" style="58" customWidth="1"/>
+    <col min="6" max="6" width="13.625" style="58" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="58" customWidth="1"/>
+    <col min="8" max="8" width="13.125" style="58" customWidth="1"/>
+    <col min="9" max="9" width="10.375" style="58" customWidth="1"/>
+    <col min="10" max="10" width="7.625" style="58" customWidth="1"/>
+    <col min="11" max="11" width="8.125" style="58" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="58" customWidth="1"/>
+    <col min="13" max="13" width="8.375" style="58" customWidth="1"/>
+    <col min="14" max="14" width="16.5" style="58" customWidth="1"/>
+    <col min="15" max="15" width="8.125" style="64" customWidth="1"/>
+    <col min="16" max="16" width="11.5" style="58" customWidth="1"/>
+    <col min="17" max="17" width="10.875" style="60" customWidth="1"/>
+    <col min="18" max="18" width="21.375" style="58" customWidth="1"/>
+    <col min="19" max="19" width="10" style="58" customWidth="1"/>
+    <col min="20" max="20" width="11.25" style="58" customWidth="1"/>
+    <col min="21" max="21" width="9" style="58"/>
+    <col min="22" max="22" width="7.5" style="58" customWidth="1"/>
+    <col min="23" max="23" width="6.875" style="58" customWidth="1"/>
+    <col min="24" max="24" width="6.875" style="64" customWidth="1"/>
+    <col min="25" max="25" width="8.5" style="58" customWidth="1"/>
+    <col min="26" max="26" width="22.375" style="58" customWidth="1"/>
+    <col min="27" max="27" width="21.125" style="58" customWidth="1"/>
+    <col min="28" max="28" width="10.125" style="62" customWidth="1"/>
+    <col min="29" max="29" width="9" style="62"/>
+    <col min="30" max="30" width="9" style="58"/>
+    <col min="31" max="31" width="11.625" style="58" customWidth="1"/>
+    <col min="32" max="32" width="14.125" style="58" customWidth="1"/>
+    <col min="33" max="33" width="11.75" style="58" customWidth="1"/>
+    <col min="34" max="16384" width="9" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="59" t="s">
         <v>193</v>
       </c>
@@ -6475,162 +7111,1406 @@
         <v>194</v>
       </c>
       <c r="D1" s="60" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="E1" s="60" t="s">
-        <v>27</v>
+        <v>207</v>
       </c>
       <c r="F1" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="60" t="s">
         <v>197</v>
       </c>
-      <c r="G1" s="60" t="s">
-        <v>58</v>
-      </c>
       <c r="H1" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" s="60" t="s">
+        <v>198</v>
+      </c>
+      <c r="I1" s="61" t="s">
+        <v>199</v>
+      </c>
+      <c r="J1" s="60" t="s">
+        <v>196</v>
+      </c>
+      <c r="K1" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="60" t="s">
+        <v>208</v>
+      </c>
+      <c r="N1" s="60" t="s">
+        <v>209</v>
+      </c>
+      <c r="O1" s="63" t="s">
+        <v>205</v>
+      </c>
+      <c r="P1" s="99" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q1" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="R1" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="S1" s="61" t="s">
+        <v>199</v>
+      </c>
+      <c r="T1" s="60" t="s">
+        <v>196</v>
+      </c>
+      <c r="U1" s="60" t="s">
+        <v>228</v>
+      </c>
+      <c r="V1" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="W1" s="60" t="s">
         <v>201</v>
       </c>
-      <c r="K1" s="61" t="s">
-        <v>202</v>
-      </c>
-      <c r="L1" s="60" t="s">
-        <v>198</v>
-      </c>
-      <c r="M1" s="60" t="s">
-        <v>203</v>
-      </c>
-      <c r="N1" s="60" t="s">
-        <v>204</v>
-      </c>
-      <c r="O1" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" s="60" t="s">
-        <v>205</v>
-      </c>
-      <c r="R1" s="60" t="s">
-        <v>206</v>
-      </c>
-      <c r="S1" s="60" t="s">
-        <v>207</v>
-      </c>
-      <c r="T1" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="U1" s="60" t="s">
-        <v>200</v>
-      </c>
-      <c r="V1" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="W1" s="61" t="s">
-        <v>202</v>
-      </c>
-      <c r="X1" s="60" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y1" s="60" t="s">
-        <v>203</v>
-      </c>
-      <c r="Z1" s="60" t="s">
-        <v>204</v>
-      </c>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="X1" s="122" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y1" s="123" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z1" s="123" t="s">
+        <v>260</v>
+      </c>
+      <c r="AA1" s="123" t="s">
+        <v>261</v>
+      </c>
+      <c r="AB1" s="124" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC1" s="124" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD1" s="58" t="s">
+        <v>275</v>
+      </c>
+      <c r="AE1" s="58" t="s">
+        <v>277</v>
+      </c>
+      <c r="AF1" s="60" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="58">
         <v>1</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="58">
+      <c r="C2" s="65">
         <v>49</v>
       </c>
-      <c r="F2" s="58">
+      <c r="D2" s="65">
         <v>3</v>
       </c>
-      <c r="H2" s="58">
-        <v>66</v>
-      </c>
-      <c r="I2" s="58" t="s">
-        <v>196</v>
-      </c>
-      <c r="J2" s="58">
-        <v>66</v>
-      </c>
-      <c r="K2" s="58">
+      <c r="E2" s="65">
+        <v>64</v>
+      </c>
+      <c r="F2" s="65" t="s">
+        <v>255</v>
+      </c>
+      <c r="G2" s="65" t="s">
+        <v>195</v>
+      </c>
+      <c r="H2" s="65" t="s">
+        <v>255</v>
+      </c>
+      <c r="I2" s="65">
         <v>1</v>
       </c>
-      <c r="L2" s="58" t="s">
-        <v>199</v>
-      </c>
-      <c r="M2" s="58" t="s">
-        <v>208</v>
-      </c>
-      <c r="N2" s="58" t="s">
-        <v>209</v>
-      </c>
-      <c r="O2" s="58" t="s">
+      <c r="J2" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="K2" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q2" s="120" t="s">
+        <v>204</v>
+      </c>
+      <c r="V2" s="65">
+        <v>310</v>
+      </c>
+      <c r="W2" s="65"/>
+      <c r="X2" s="125" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y2" s="120" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z2" s="120" t="s">
+        <v>262</v>
+      </c>
+      <c r="AA2" s="120"/>
+      <c r="AB2" s="126">
+        <v>15</v>
+      </c>
+      <c r="AC2" s="126"/>
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="137"/>
+      <c r="AF2" s="138">
+        <v>3</v>
+      </c>
+      <c r="AG2" s="58" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A3" s="58">
+        <v>1</v>
+      </c>
+      <c r="L3" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="58">
+      <c r="M3" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="N3" s="66">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="O3" s="68" t="s">
+        <v>211</v>
+      </c>
+      <c r="P3" s="100">
+        <v>64</v>
+      </c>
+      <c r="Q3" s="66" t="s">
+        <v>212</v>
+      </c>
+      <c r="R3" s="109" t="s">
+        <v>221</v>
+      </c>
+      <c r="S3" s="66">
+        <v>1</v>
+      </c>
+      <c r="T3" s="66" t="s">
+        <v>203</v>
+      </c>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66">
+        <v>251</v>
+      </c>
+      <c r="X3" s="68" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y3" s="66" t="s">
+        <v>253</v>
+      </c>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB3" s="127"/>
+      <c r="AC3" s="127">
+        <v>98</v>
+      </c>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="100"/>
+      <c r="AF3" s="66">
+        <v>13.1625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="58">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B4" s="66" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" s="66">
+        <v>49</v>
+      </c>
+      <c r="D4" s="66">
+        <v>39</v>
+      </c>
+      <c r="E4" s="66">
+        <v>64</v>
+      </c>
+      <c r="F4" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="G4" s="66" t="s">
+        <v>214</v>
+      </c>
+      <c r="H4" s="66">
+        <v>0</v>
+      </c>
+      <c r="I4" s="66">
+        <v>1</v>
+      </c>
+      <c r="J4" s="66" t="s">
+        <v>203</v>
+      </c>
+      <c r="K4" s="66" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q4" s="66" t="s">
+        <v>212</v>
+      </c>
+      <c r="V4" s="66">
+        <v>180</v>
+      </c>
+      <c r="W4" s="66"/>
+      <c r="X4" s="68" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y4" s="66" t="s">
+        <v>253</v>
+      </c>
+      <c r="Z4" s="66" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA4" s="66"/>
+      <c r="AB4" s="127">
+        <v>69</v>
+      </c>
+      <c r="AC4" s="127"/>
+      <c r="AD4" s="66"/>
+      <c r="AE4" s="100"/>
+      <c r="AF4" s="66">
+        <v>14.625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="58">
+        <v>2</v>
+      </c>
+      <c r="L5" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="M5" s="70">
+        <v>0.3</v>
+      </c>
+      <c r="N5" s="69">
+        <v>48</v>
+      </c>
+      <c r="O5" s="71" t="s">
+        <v>216</v>
+      </c>
+      <c r="P5" s="101">
+        <v>64</v>
+      </c>
+      <c r="Q5" s="69" t="s">
+        <v>217</v>
+      </c>
+      <c r="R5" s="110" t="s">
+        <v>222</v>
+      </c>
+      <c r="S5" s="69">
+        <v>1</v>
+      </c>
+      <c r="T5" s="69" t="s">
+        <v>203</v>
+      </c>
+      <c r="V5" s="69"/>
+      <c r="W5" s="69">
+        <v>307</v>
+      </c>
+      <c r="X5" s="71" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y5" s="69" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z5" s="69"/>
+      <c r="AA5" s="69" t="s">
+        <v>272</v>
+      </c>
+      <c r="AB5" s="128"/>
+      <c r="AC5" s="128">
+        <v>122</v>
+      </c>
+      <c r="AD5" s="69"/>
+      <c r="AE5" s="101"/>
+      <c r="AF5" s="69">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A6" s="58">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A6" s="58">
+      <c r="B6" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="69">
+        <v>49</v>
+      </c>
+      <c r="D6" s="69">
+        <v>48</v>
+      </c>
+      <c r="E6" s="69">
+        <v>64</v>
+      </c>
+      <c r="F6" s="69" t="s">
+        <v>255</v>
+      </c>
+      <c r="G6" s="69" t="s">
+        <v>214</v>
+      </c>
+      <c r="H6" s="69">
+        <v>0</v>
+      </c>
+      <c r="I6" s="69">
+        <v>1</v>
+      </c>
+      <c r="J6" s="69" t="s">
+        <v>203</v>
+      </c>
+      <c r="K6" s="69" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q6" s="69" t="s">
+        <v>217</v>
+      </c>
+      <c r="V6" s="69">
+        <v>180</v>
+      </c>
+      <c r="W6" s="69"/>
+      <c r="X6" s="71" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y6" s="69" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z6" s="69" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA6" s="69"/>
+      <c r="AB6" s="128">
+        <v>69</v>
+      </c>
+      <c r="AC6" s="128"/>
+      <c r="AD6" s="69"/>
+      <c r="AE6" s="101"/>
+      <c r="AF6" s="69">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A7" s="58">
+        <v>3</v>
+      </c>
+      <c r="L7" s="72" t="s">
+        <v>213</v>
+      </c>
+      <c r="M7" s="73">
+        <v>0.3</v>
+      </c>
+      <c r="N7" s="72">
+        <v>48</v>
+      </c>
+      <c r="O7" s="74" t="s">
+        <v>216</v>
+      </c>
+      <c r="P7" s="102">
+        <v>64</v>
+      </c>
+      <c r="Q7" s="72" t="s">
+        <v>217</v>
+      </c>
+      <c r="R7" s="111" t="s">
+        <v>222</v>
+      </c>
+      <c r="S7" s="72">
+        <v>1</v>
+      </c>
+      <c r="T7" s="72" t="s">
+        <v>203</v>
+      </c>
+      <c r="V7" s="72"/>
+      <c r="W7" s="72">
+        <v>307</v>
+      </c>
+      <c r="X7" s="74" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y7" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z7" s="72"/>
+      <c r="AA7" s="72" t="s">
+        <v>272</v>
+      </c>
+      <c r="AB7" s="129"/>
+      <c r="AC7" s="129">
+        <v>122</v>
+      </c>
+      <c r="AD7" s="72"/>
+      <c r="AE7" s="102"/>
+      <c r="AF7" s="72">
+        <v>17.55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A8" s="58">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A7" s="58">
+      <c r="B8" s="72" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" s="72">
+        <v>49</v>
+      </c>
+      <c r="D8" s="72">
+        <v>48</v>
+      </c>
+      <c r="E8" s="72">
+        <v>64</v>
+      </c>
+      <c r="F8" s="72" t="s">
+        <v>255</v>
+      </c>
+      <c r="G8" s="72" t="s">
+        <v>214</v>
+      </c>
+      <c r="H8" s="72">
+        <v>0</v>
+      </c>
+      <c r="I8" s="72">
+        <v>1</v>
+      </c>
+      <c r="J8" s="72" t="s">
+        <v>203</v>
+      </c>
+      <c r="K8" s="72" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q8" s="72" t="s">
+        <v>217</v>
+      </c>
+      <c r="V8" s="72">
+        <v>180</v>
+      </c>
+      <c r="W8" s="72"/>
+      <c r="X8" s="74" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y8" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z8" s="72" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="129">
+        <v>69</v>
+      </c>
+      <c r="AC8" s="129"/>
+      <c r="AD8" s="72"/>
+      <c r="AE8" s="102"/>
+      <c r="AF8" s="72">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A9" s="58">
+        <v>4</v>
+      </c>
+      <c r="L9" s="75" t="s">
+        <v>213</v>
+      </c>
+      <c r="M9" s="76">
+        <v>0.3</v>
+      </c>
+      <c r="N9" s="75">
+        <v>55</v>
+      </c>
+      <c r="O9" s="77" t="s">
+        <v>216</v>
+      </c>
+      <c r="P9" s="103">
+        <v>64</v>
+      </c>
+      <c r="Q9" s="75" t="s">
+        <v>224</v>
+      </c>
+      <c r="R9" s="112" t="s">
+        <v>222</v>
+      </c>
+      <c r="S9" s="75">
+        <v>1</v>
+      </c>
+      <c r="T9" s="75" t="s">
+        <v>203</v>
+      </c>
+      <c r="V9" s="75"/>
+      <c r="W9" s="75">
+        <v>307</v>
+      </c>
+      <c r="X9" s="77" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y9" s="75" t="s">
+        <v>265</v>
+      </c>
+      <c r="Z9" s="75"/>
+      <c r="AA9" s="75" t="s">
+        <v>272</v>
+      </c>
+      <c r="AB9" s="130"/>
+      <c r="AC9" s="130">
+        <v>122</v>
+      </c>
+      <c r="AD9" s="75"/>
+      <c r="AE9" s="103"/>
+      <c r="AF9" s="75">
+        <v>18.5625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A10" s="58">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A8" s="58">
+      <c r="B10" s="75" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" s="75">
+        <v>49</v>
+      </c>
+      <c r="D10" s="75">
+        <v>55</v>
+      </c>
+      <c r="E10" s="75">
+        <v>128</v>
+      </c>
+      <c r="F10" s="75" t="s">
+        <v>227</v>
+      </c>
+      <c r="G10" s="75" t="s">
+        <v>226</v>
+      </c>
+      <c r="H10" s="75">
+        <v>130</v>
+      </c>
+      <c r="I10" s="75">
+        <v>1</v>
+      </c>
+      <c r="J10" s="75" t="s">
+        <v>203</v>
+      </c>
+      <c r="K10" s="75" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q10" s="75" t="s">
+        <v>224</v>
+      </c>
+      <c r="V10" s="75">
+        <v>309</v>
+      </c>
+      <c r="W10" s="75"/>
+      <c r="X10" s="77" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y10" s="75" t="s">
+        <v>265</v>
+      </c>
+      <c r="Z10" s="75" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA10" s="75"/>
+      <c r="AB10" s="130">
+        <v>268</v>
+      </c>
+      <c r="AC10" s="130"/>
+      <c r="AD10" s="75"/>
+      <c r="AE10" s="103"/>
+      <c r="AF10" s="75">
+        <v>110</v>
+      </c>
+      <c r="AG10" s="58" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A11" s="58">
+        <v>5</v>
+      </c>
+      <c r="L11" s="78" t="s">
+        <v>229</v>
+      </c>
+      <c r="M11" s="79">
+        <v>0.6</v>
+      </c>
+      <c r="N11" s="78">
+        <v>62</v>
+      </c>
+      <c r="O11" s="80" t="s">
+        <v>211</v>
+      </c>
+      <c r="P11" s="87">
+        <v>128</v>
+      </c>
+      <c r="Q11" s="78" t="s">
+        <v>230</v>
+      </c>
+      <c r="R11" s="113" t="s">
+        <v>231</v>
+      </c>
+      <c r="S11" s="78">
+        <v>1</v>
+      </c>
+      <c r="T11" s="78" t="s">
+        <v>203</v>
+      </c>
+      <c r="U11" s="87" t="s">
+        <v>232</v>
+      </c>
+      <c r="V11" s="78"/>
+      <c r="W11" s="78">
+        <v>571</v>
+      </c>
+      <c r="X11" s="80" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y11" s="78" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z11" s="78"/>
+      <c r="AA11" s="78" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB11" s="131"/>
+      <c r="AC11" s="131">
+        <v>195</v>
+      </c>
+      <c r="AD11" s="78">
+        <v>68</v>
+      </c>
+      <c r="AE11" s="87" t="s">
+        <v>276</v>
+      </c>
+      <c r="AF11" s="78">
+        <v>130.19999999999999</v>
+      </c>
+      <c r="AG11" s="58" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A12" s="58">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A9" s="58">
+      <c r="B12" s="78" t="s">
+        <v>229</v>
+      </c>
+      <c r="C12" s="78">
+        <v>49</v>
+      </c>
+      <c r="D12" s="78">
+        <v>62</v>
+      </c>
+      <c r="E12" s="78">
+        <v>128</v>
+      </c>
+      <c r="F12" s="78" t="s">
+        <v>227</v>
+      </c>
+      <c r="G12" s="78" t="s">
+        <v>214</v>
+      </c>
+      <c r="H12" s="78">
+        <v>0</v>
+      </c>
+      <c r="I12" s="78">
+        <v>1</v>
+      </c>
+      <c r="J12" s="78" t="s">
+        <v>233</v>
+      </c>
+      <c r="K12" s="78" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q12" s="78" t="s">
+        <v>234</v>
+      </c>
+      <c r="V12" s="78">
+        <v>180</v>
+      </c>
+      <c r="W12" s="78"/>
+      <c r="X12" s="80" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y12" s="78" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z12" s="78" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA12" s="78"/>
+      <c r="AB12" s="131">
+        <v>69</v>
+      </c>
+      <c r="AC12" s="131"/>
+      <c r="AD12" s="78"/>
+      <c r="AE12" s="87"/>
+      <c r="AF12" s="78">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A13" s="58">
+        <v>6</v>
+      </c>
+      <c r="L13" s="81" t="s">
+        <v>229</v>
+      </c>
+      <c r="M13" s="82">
+        <v>0.5</v>
+      </c>
+      <c r="N13" s="81">
+        <v>75</v>
+      </c>
+      <c r="O13" s="83" t="s">
+        <v>211</v>
+      </c>
+      <c r="P13" s="104">
+        <v>128</v>
+      </c>
+      <c r="Q13" s="81" t="s">
+        <v>235</v>
+      </c>
+      <c r="R13" s="114" t="s">
+        <v>231</v>
+      </c>
+      <c r="S13" s="81">
+        <v>1</v>
+      </c>
+      <c r="T13" s="81" t="s">
+        <v>233</v>
+      </c>
+      <c r="V13" s="81"/>
+      <c r="W13" s="81">
+        <v>507</v>
+      </c>
+      <c r="X13" s="83" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y13" s="81" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z13" s="81"/>
+      <c r="AA13" s="81" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB13" s="132"/>
+      <c r="AC13" s="132">
+        <v>195</v>
+      </c>
+      <c r="AD13" s="81"/>
+      <c r="AE13" s="104"/>
+      <c r="AF13" s="81">
+        <v>50.625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A14" s="58">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A10" s="58">
+      <c r="B14" s="81" t="s">
+        <v>229</v>
+      </c>
+      <c r="C14" s="81">
+        <v>49</v>
+      </c>
+      <c r="D14" s="81">
+        <v>75</v>
+      </c>
+      <c r="E14" s="81">
+        <v>128</v>
+      </c>
+      <c r="F14" s="81" t="s">
+        <v>227</v>
+      </c>
+      <c r="G14" s="81" t="s">
+        <v>214</v>
+      </c>
+      <c r="H14" s="81">
+        <v>0</v>
+      </c>
+      <c r="I14" s="81">
+        <v>1</v>
+      </c>
+      <c r="J14" s="81" t="s">
+        <v>233</v>
+      </c>
+      <c r="K14" s="81" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q14" s="81" t="s">
+        <v>235</v>
+      </c>
+      <c r="V14" s="81">
+        <v>180</v>
+      </c>
+      <c r="W14" s="81"/>
+      <c r="X14" s="83" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y14" s="81" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z14" s="81" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA14" s="81"/>
+      <c r="AB14" s="132">
+        <v>135</v>
+      </c>
+      <c r="AC14" s="132"/>
+      <c r="AD14" s="81"/>
+      <c r="AE14" s="104"/>
+      <c r="AF14" s="81">
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A15" s="58">
+        <v>7</v>
+      </c>
+      <c r="L15" s="84" t="s">
+        <v>229</v>
+      </c>
+      <c r="M15" s="85">
+        <v>0.45</v>
+      </c>
+      <c r="N15" s="84">
+        <v>84</v>
+      </c>
+      <c r="O15" s="86" t="s">
+        <v>211</v>
+      </c>
+      <c r="P15" s="105">
+        <v>128</v>
+      </c>
+      <c r="Q15" s="84" t="s">
+        <v>236</v>
+      </c>
+      <c r="R15" s="115" t="s">
+        <v>231</v>
+      </c>
+      <c r="S15" s="84">
+        <v>1</v>
+      </c>
+      <c r="T15" s="84" t="s">
+        <v>233</v>
+      </c>
+      <c r="V15" s="84"/>
+      <c r="W15" s="84">
+        <v>507</v>
+      </c>
+      <c r="X15" s="86" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y15" s="84" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z15" s="84"/>
+      <c r="AA15" s="84" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB15" s="133"/>
+      <c r="AC15" s="133">
+        <v>195</v>
+      </c>
+      <c r="AD15" s="84"/>
+      <c r="AE15" s="105"/>
+      <c r="AF15" s="84">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A16" s="58">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A11" s="58">
+      <c r="B16" s="84" t="s">
+        <v>237</v>
+      </c>
+      <c r="C16" s="84">
+        <v>49</v>
+      </c>
+      <c r="D16" s="84">
+        <v>212</v>
+      </c>
+      <c r="E16" s="84">
+        <v>256</v>
+      </c>
+      <c r="F16" s="84" t="s">
+        <v>238</v>
+      </c>
+      <c r="G16" s="84" t="s">
+        <v>226</v>
+      </c>
+      <c r="H16" s="84">
+        <v>258</v>
+      </c>
+      <c r="I16" s="84">
+        <v>1</v>
+      </c>
+      <c r="J16" s="84" t="s">
+        <v>233</v>
+      </c>
+      <c r="K16" s="84" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q16" s="84" t="s">
+        <v>239</v>
+      </c>
+      <c r="V16" s="84">
+        <v>565</v>
+      </c>
+      <c r="W16" s="84"/>
+      <c r="X16" s="133">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="84" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z16" s="84" t="s">
+        <v>280</v>
+      </c>
+      <c r="AA16" s="84"/>
+      <c r="AB16" s="133">
+        <v>1031</v>
+      </c>
+      <c r="AC16" s="133"/>
+      <c r="AD16" s="84"/>
+      <c r="AE16" s="105"/>
+      <c r="AF16" s="84">
+        <v>336</v>
+      </c>
+      <c r="AG16" s="58" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A17" s="58">
+        <v>8</v>
+      </c>
+      <c r="L17" s="88" t="s">
+        <v>240</v>
+      </c>
+      <c r="M17" s="89">
+        <v>0.8</v>
+      </c>
+      <c r="N17" s="88">
+        <v>21</v>
+      </c>
+      <c r="O17" s="90" t="s">
+        <v>241</v>
+      </c>
+      <c r="P17" s="91">
+        <v>256</v>
+      </c>
+      <c r="Q17" s="88" t="s">
+        <v>242</v>
+      </c>
+      <c r="R17" s="116" t="s">
+        <v>243</v>
+      </c>
+      <c r="S17" s="88">
+        <v>1</v>
+      </c>
+      <c r="T17" s="88" t="s">
+        <v>233</v>
+      </c>
+      <c r="U17" s="91" t="s">
+        <v>244</v>
+      </c>
+      <c r="V17" s="88"/>
+      <c r="W17" s="88">
+        <v>834</v>
+      </c>
+      <c r="X17" s="90" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y17" s="88" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z17" s="88"/>
+      <c r="AA17" s="88" t="s">
+        <v>284</v>
+      </c>
+      <c r="AB17" s="135"/>
+      <c r="AC17" s="135">
+        <v>74</v>
+      </c>
+      <c r="AD17" s="88">
+        <v>514</v>
+      </c>
+      <c r="AE17" s="91" t="s">
+        <v>281</v>
+      </c>
+      <c r="AF17" s="88">
+        <v>88.2</v>
+      </c>
+      <c r="AG17" s="58" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A18" s="58">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A12" s="58">
+      <c r="B18" s="88" t="s">
+        <v>240</v>
+      </c>
+      <c r="C18" s="88">
+        <v>49</v>
+      </c>
+      <c r="D18" s="88">
+        <v>21</v>
+      </c>
+      <c r="E18" s="88">
+        <v>256</v>
+      </c>
+      <c r="F18" s="88" t="s">
+        <v>238</v>
+      </c>
+      <c r="G18" s="88" t="s">
+        <v>214</v>
+      </c>
+      <c r="H18" s="88">
+        <v>0</v>
+      </c>
+      <c r="I18" s="88">
+        <v>1</v>
+      </c>
+      <c r="J18" s="88" t="s">
+        <v>245</v>
+      </c>
+      <c r="K18" s="88" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q18" s="88" t="s">
+        <v>246</v>
+      </c>
+      <c r="V18" s="88">
+        <v>308</v>
+      </c>
+      <c r="W18" s="88"/>
+      <c r="X18" s="90" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y18" s="88" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z18" s="88" t="s">
+        <v>282</v>
+      </c>
+      <c r="AA18" s="88"/>
+      <c r="AB18" s="135">
+        <v>37</v>
+      </c>
+      <c r="AC18" s="135"/>
+      <c r="AD18" s="88"/>
+      <c r="AE18" s="91"/>
+      <c r="AF18" s="88">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A19" s="58">
+        <v>9</v>
+      </c>
+      <c r="L19" s="92" t="s">
+        <v>240</v>
+      </c>
+      <c r="M19" s="93">
+        <v>0.6</v>
+      </c>
+      <c r="N19" s="92">
+        <v>13</v>
+      </c>
+      <c r="O19" s="94" t="s">
+        <v>211</v>
+      </c>
+      <c r="P19" s="106">
+        <v>256</v>
+      </c>
+      <c r="Q19" s="92" t="s">
+        <v>247</v>
+      </c>
+      <c r="R19" s="117" t="s">
+        <v>248</v>
+      </c>
+      <c r="S19" s="92">
+        <v>1</v>
+      </c>
+      <c r="T19" s="92" t="s">
+        <v>245</v>
+      </c>
+      <c r="V19" s="92"/>
+      <c r="W19" s="92">
+        <v>1003</v>
+      </c>
+      <c r="X19" s="94" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y19" s="92" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z19" s="92"/>
+      <c r="AA19" s="92" t="s">
+        <v>285</v>
+      </c>
+      <c r="AB19" s="134"/>
+      <c r="AC19" s="134">
+        <v>26</v>
+      </c>
+      <c r="AD19" s="92"/>
+      <c r="AE19" s="106"/>
+      <c r="AF19" s="92">
+        <v>17.55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A20" s="58">
         <v>10</v>
       </c>
+      <c r="B20" s="92" t="s">
+        <v>240</v>
+      </c>
+      <c r="C20" s="92">
+        <v>49</v>
+      </c>
+      <c r="D20" s="92">
+        <v>13</v>
+      </c>
+      <c r="E20" s="92">
+        <v>256</v>
+      </c>
+      <c r="F20" s="92" t="s">
+        <v>238</v>
+      </c>
+      <c r="G20" s="92" t="s">
+        <v>214</v>
+      </c>
+      <c r="H20" s="92">
+        <v>0</v>
+      </c>
+      <c r="I20" s="92">
+        <v>1</v>
+      </c>
+      <c r="J20" s="92" t="s">
+        <v>245</v>
+      </c>
+      <c r="K20" s="92" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q20" s="92" t="s">
+        <v>247</v>
+      </c>
+      <c r="V20" s="92">
+        <v>308</v>
+      </c>
+      <c r="W20" s="92"/>
+      <c r="X20" s="94" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y20" s="92" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z20" s="92" t="s">
+        <v>283</v>
+      </c>
+      <c r="AA20" s="92"/>
+      <c r="AB20" s="134">
+        <v>21</v>
+      </c>
+      <c r="AC20" s="134"/>
+      <c r="AD20" s="92"/>
+      <c r="AE20" s="106"/>
+      <c r="AF20" s="92">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A21" s="58">
+        <v>10</v>
+      </c>
+      <c r="L21" s="95" t="s">
+        <v>240</v>
+      </c>
+      <c r="M21" s="96">
+        <v>0.7</v>
+      </c>
+      <c r="N21" s="95">
+        <v>256</v>
+      </c>
+      <c r="O21" s="97" t="s">
+        <v>211</v>
+      </c>
+      <c r="P21" s="107">
+        <v>256</v>
+      </c>
+      <c r="Q21" s="95" t="s">
+        <v>215</v>
+      </c>
+      <c r="R21" s="118" t="s">
+        <v>248</v>
+      </c>
+      <c r="S21" s="95">
+        <v>1</v>
+      </c>
+      <c r="T21" s="95" t="s">
+        <v>245</v>
+      </c>
+      <c r="V21" s="95"/>
+      <c r="W21" s="95">
+        <v>1003</v>
+      </c>
+      <c r="X21" s="97" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y21" s="95" t="s">
+        <v>271</v>
+      </c>
+      <c r="Z21" s="95"/>
+      <c r="AA21" s="95" t="s">
+        <v>286</v>
+      </c>
+      <c r="AB21" s="136"/>
+      <c r="AC21" s="136">
+        <v>386</v>
+      </c>
+      <c r="AD21" s="95"/>
+      <c r="AE21" s="107"/>
+      <c r="AF21" s="95">
+        <v>345.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="Q22" s="119"/>
+      <c r="V22" s="98">
+        <f t="shared" ref="V22:W22" si="0">SUM(V2:V21)</f>
+        <v>2700</v>
+      </c>
+      <c r="W22" s="98">
+        <f t="shared" si="0"/>
+        <v>5597</v>
+      </c>
+      <c r="AB22" s="121">
+        <f t="shared" ref="AB22:AD22" si="1">SUM(AB2:AB21)</f>
+        <v>1783</v>
+      </c>
+      <c r="AC22" s="121">
+        <f t="shared" si="1"/>
+        <v>1535</v>
+      </c>
+      <c r="AD22" s="98">
+        <f t="shared" si="1"/>
+        <v>582</v>
+      </c>
+      <c r="AF22" s="98">
+        <f>SUM(AF2:AF21)</f>
+        <v>1409.2249999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="Q23" s="119"/>
+      <c r="W23" s="58">
+        <f>V22+W22</f>
+        <v>8297</v>
+      </c>
+      <c r="AD23" s="58">
+        <f>AB22+AC22+AD22</f>
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="Q24" s="119"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="Q25" s="119"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="Q26" s="119"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="Q27" s="119"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="Q28" s="119"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="Q29" s="119"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="Q30" s="119"/>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="Q31" s="119"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="Q32" s="119"/>
+    </row>
+    <row r="33" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q33" s="119"/>
+    </row>
+    <row r="34" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q34" s="119"/>
+    </row>
+    <row r="35" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q35" s="119"/>
+    </row>
+    <row r="36" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q36" s="119"/>
+    </row>
+    <row r="37" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q37" s="119"/>
+    </row>
+    <row r="38" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q38" s="119"/>
+    </row>
+    <row r="39" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q39" s="119"/>
+    </row>
+    <row r="40" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q40" s="119"/>
+    </row>
+    <row r="41" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q41" s="119"/>
+    </row>
+    <row r="42" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q42" s="119"/>
+    </row>
+    <row r="43" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q43" s="119"/>
+    </row>
+    <row r="44" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q44" s="119"/>
+    </row>
+    <row r="45" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q45" s="119"/>
+    </row>
+    <row r="46" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q46" s="119"/>
+    </row>
+    <row r="47" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q47" s="119"/>
+    </row>
+    <row r="48" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q48" s="119"/>
+    </row>
+    <row r="49" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q49" s="119"/>
+    </row>
+    <row r="50" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q50" s="119"/>
+    </row>
+    <row r="51" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q51" s="119"/>
+    </row>
+    <row r="52" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q52" s="119"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
